--- a/docs/TmctlAPINet/201_TmctlFunctions.xlsx
+++ b/docs/TmctlAPINet/201_TmctlFunctions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Ivi.Visa\docs\TmctlAPINet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E5B79E-FE26-41F1-8633-3FD4128A44F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D13E2B-8497-4178-88CA-DD5FC654AFDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="720" windowWidth="18540" windowHeight="15480" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Functions" sheetId="1" r:id="rId1"/>
@@ -1935,8 +1935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF6BA75-938D-4217-B311-49E261BD245D}">
   <dimension ref="B2:Y134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1"/>
@@ -2424,19 +2424,19 @@
         <v>304</v>
       </c>
       <c r="T9" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="U9" s="4" t="s">
         <v>304</v>
       </c>
       <c r="V9" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="W9" s="4" t="s">
         <v>304</v>
       </c>
       <c r="X9" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Y9" s="4" t="s">
         <v>304</v>
@@ -5089,7 +5089,7 @@
         <v>304</v>
       </c>
       <c r="V48" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="W48" s="4" t="s">
         <v>304</v>
@@ -5160,7 +5160,7 @@
         <v>304</v>
       </c>
       <c r="V49" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="W49" s="4" t="s">
         <v>304</v>
@@ -5225,19 +5225,19 @@
         <v>304</v>
       </c>
       <c r="T50" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="U50" s="4" t="s">
         <v>304</v>
       </c>
       <c r="V50" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="W50" s="4" t="s">
         <v>304</v>
       </c>
       <c r="X50" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Y50" s="4" t="s">
         <v>304</v>
